--- a/Bridge 　Craft 仕様書.xlsx
+++ b/Bridge 　Craft 仕様書.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Documents\GitHub\unity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Documents\git\unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書について " sheetId="13" r:id="rId1"/>
     <sheet name="シーンフロー" sheetId="14" r:id="rId2"/>
     <sheet name="操作方法" sheetId="4" r:id="rId3"/>
     <sheet name="統一仕様" sheetId="15" r:id="rId4"/>
-    <sheet name="タイトル" sheetId="5" r:id="rId5"/>
-    <sheet name="ステージセレクト" sheetId="6" r:id="rId6"/>
+    <sheet name="タイトル " sheetId="16" r:id="rId5"/>
+    <sheet name="ステージセレクト" sheetId="17" r:id="rId6"/>
     <sheet name="ゲームメイン" sheetId="7" r:id="rId7"/>
     <sheet name="各オブジェクト仕様" sheetId="8" r:id="rId8"/>
-    <sheet name="GAMEOVER" sheetId="9" r:id="rId9"/>
-    <sheet name="GAMECLEAR" sheetId="10" r:id="rId10"/>
+    <sheet name="GAMEOVER" sheetId="18" r:id="rId9"/>
+    <sheet name="GAMECLEAR" sheetId="19" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>岩本</t>
     <rPh sb="0" eb="2">
@@ -242,6 +242,10 @@
     <rPh sb="41" eb="42">
       <t>ツナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>💩</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3150,6 +3154,934 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>517070</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="217713" y="278945"/>
+          <a:ext cx="9214757" cy="5864679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1915885" y="993322"/>
+          <a:ext cx="5750378" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="8800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bridge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="8800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Craft</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810001" y="3694339"/>
+          <a:ext cx="2756806" cy="1122590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Strat</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="390525"/>
+          <a:ext cx="8839200" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>スタートの文字をマウスクリックで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>ステージセレクト画面に移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297996</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>170089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="297996" y="408214"/>
+          <a:ext cx="6832147" cy="4293053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="821872" y="3537856"/>
+          <a:ext cx="1216479" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stage1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>325210</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>224519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175532</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>224519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3068410" y="3558269"/>
+          <a:ext cx="1221922" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stage2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556532</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406854</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5357132" y="3571874"/>
+          <a:ext cx="1221922" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Stage3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>557213</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="623887"/>
+          <a:ext cx="6557963" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>マウスカーソルを合わせるとステージ見本（緑の四角形）の周りが黄色く光る。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>クリックすると光っている</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>ステージに移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4872037" y="1333500"/>
+          <a:ext cx="2200276" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175532</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>170089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89807</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4976132" y="1598839"/>
+          <a:ext cx="1971675" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>627291</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541565</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2684691" y="1583872"/>
+          <a:ext cx="1971674" cy="1564821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355147</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="435429" y="1556658"/>
+          <a:ext cx="1977118" cy="1564821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="1928812"/>
+          <a:ext cx="1824037" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3197,7 +4129,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3359,6 +4291,1166 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>221797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="133349" y="221797"/>
+          <a:ext cx="9697812" cy="5486400"/>
+          <a:chOff x="133349" y="221797"/>
+          <a:chExt cx="9881507" cy="5983060"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="133349" y="221797"/>
+            <a:ext cx="9881507" cy="5983060"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2204358" y="843643"/>
+            <a:ext cx="5565322" cy="1415143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="8000"/>
+              <a:t>GAME OVER</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4299858" y="3034392"/>
+            <a:ext cx="1945821" cy="830036"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400"/>
+              <a:t>RETRY</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4340678" y="4272643"/>
+            <a:ext cx="1646465" cy="721178"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+              <a:t>MENU</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="右矢印 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3388179" y="3197679"/>
+            <a:ext cx="666750" cy="476250"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="428625"/>
+          <a:ext cx="7696200" cy="5200650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>マウスカーソルを合わせてクリックで移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>１．リトライ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>２．ステージセレクト画面に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>　　移動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="2881313"/>
+          <a:ext cx="495300" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="4000500"/>
+          <a:ext cx="495300" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="952500"/>
+          <a:ext cx="9829800" cy="5983060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3442608" y="1574346"/>
+          <a:ext cx="5929991" cy="1415143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="8000"/>
+            <a:t>GAME CLEAR</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51709</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>625930</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5538109" y="3609231"/>
+          <a:ext cx="1945821" cy="834365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400"/>
+            <a:t>NEXT</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>75211</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350076</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5561611" y="5735039"/>
+          <a:ext cx="1646465" cy="721178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>MENU</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355766</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>222291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336716</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>222291</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4470566" y="3794166"/>
+          <a:ext cx="666750" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>231940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="4749512"/>
+          <a:ext cx="1646465" cy="721178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+            <a:t>RETRY</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="1466850"/>
+          <a:ext cx="9296400" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マウス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="4400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カーソルを合わせてクリックで移動</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="4400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>１．次のステージに移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>２．クリアしたステージに移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400"/>
+            <a:t>３．ステージセレクト画面に移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7167562" y="3571875"/>
+          <a:ext cx="495300" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="5786437"/>
+          <a:ext cx="495300" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="4772025"/>
+          <a:ext cx="495300" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3684,7 +5776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3696,6 +5790,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3810,20 +5905,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3831,8 +5935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3845,6 +5949,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3875,7 +5980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4033,7 +6138,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4045,5 +6152,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>